--- a/Data/Bilançolar/DAGHL.xlsx
+++ b/Data/Bilançolar/DAGHL.xlsx
@@ -15080,7 +15080,7 @@
         <v>-465315</v>
       </c>
       <c r="C84" t="n">
-        <v>-158497</v>
+        <v>-158505</v>
       </c>
       <c r="D84" t="n">
         <v>-623176</v>
@@ -15605,7 +15605,7 @@
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="D87" t="n">
         <v>-851817</v>
@@ -16130,7 +16130,7 @@
         <v>4513402</v>
       </c>
       <c r="C90" t="n">
-        <v>898204</v>
+        <v>898196</v>
       </c>
       <c r="D90" t="n">
         <v>-331736</v>
@@ -16830,7 +16830,7 @@
         <v>11913905</v>
       </c>
       <c r="C94" t="n">
-        <v>8658167</v>
+        <v>8658166</v>
       </c>
       <c r="D94" t="n">
         <v>5605184</v>
@@ -17005,7 +17005,7 @@
         <v>16475859</v>
       </c>
       <c r="C95" t="n">
-        <v>9589261</v>
+        <v>9589260</v>
       </c>
       <c r="D95" t="n">
         <v>4487742</v>
@@ -17705,7 +17705,7 @@
         <v>18319714</v>
       </c>
       <c r="C99" t="n">
-        <v>10043094</v>
+        <v>10043093</v>
       </c>
       <c r="D99" t="n">
         <v>4426364</v>
@@ -18580,7 +18580,7 @@
         <v>16580926</v>
       </c>
       <c r="C104" t="n">
-        <v>9358687</v>
+        <v>9358686</v>
       </c>
       <c r="D104" t="n">
         <v>8746002</v>
@@ -19105,7 +19105,7 @@
         <v>16580926</v>
       </c>
       <c r="C107" t="n">
-        <v>9358687</v>
+        <v>9358686</v>
       </c>
       <c r="D107" t="n">
         <v>8746002</v>
@@ -19630,7 +19630,7 @@
         <v>16580926</v>
       </c>
       <c r="C110" t="n">
-        <v>9358687</v>
+        <v>9358686</v>
       </c>
       <c r="D110" t="n">
         <v>8746002</v>
@@ -19805,7 +19805,7 @@
         <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D111" t="n">
         <v>1</v>
